--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50942284655374</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H2">
-        <v>2.50942284655374</v>
+        <v>7.955216</v>
       </c>
       <c r="I2">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981275</v>
       </c>
       <c r="J2">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981274</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N2">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O2">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P2">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q2">
-        <v>28.0188796647529</v>
+        <v>29.77958032396089</v>
       </c>
       <c r="R2">
-        <v>28.0188796647529</v>
+        <v>268.016222915648</v>
       </c>
       <c r="S2">
-        <v>0.2325605523342693</v>
+        <v>0.230420263025982</v>
       </c>
       <c r="T2">
-        <v>0.2325605523342693</v>
+        <v>0.230420263025982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.50942284655374</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H3">
-        <v>2.50942284655374</v>
+        <v>7.955216</v>
       </c>
       <c r="I3">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981275</v>
       </c>
       <c r="J3">
-        <v>0.5656944404311818</v>
+        <v>0.5604432756981274</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N3">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O3">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P3">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q3">
-        <v>40.13594837624238</v>
+        <v>42.65226801480356</v>
       </c>
       <c r="R3">
-        <v>40.13594837624238</v>
+        <v>383.870412133232</v>
       </c>
       <c r="S3">
-        <v>0.3331338880969125</v>
+        <v>0.3300230126721454</v>
       </c>
       <c r="T3">
-        <v>0.3331338880969125</v>
+        <v>0.3300230126721453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.415984713704974</v>
+        <v>0.5155733333333333</v>
       </c>
       <c r="H4">
-        <v>0.415984713704974</v>
+        <v>1.54672</v>
       </c>
       <c r="I4">
-        <v>0.09377464629782599</v>
+        <v>0.10896609512398</v>
       </c>
       <c r="J4">
-        <v>0.09377464629782599</v>
+        <v>0.10896609512398</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N4">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O4">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P4">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q4">
-        <v>4.644663872285642</v>
+        <v>5.789996460017777</v>
       </c>
       <c r="R4">
-        <v>4.644663872285642</v>
+        <v>52.10996814015999</v>
       </c>
       <c r="S4">
-        <v>0.03855134853605865</v>
+        <v>0.04480024542734565</v>
       </c>
       <c r="T4">
-        <v>0.03855134853605865</v>
+        <v>0.04480024542734563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.415984713704974</v>
+        <v>0.5155733333333333</v>
       </c>
       <c r="H5">
-        <v>0.415984713704974</v>
+        <v>1.54672</v>
       </c>
       <c r="I5">
-        <v>0.09377464629782599</v>
+        <v>0.10896609512398</v>
       </c>
       <c r="J5">
-        <v>0.09377464629782599</v>
+        <v>0.10896609512398</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N5">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O5">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P5">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q5">
-        <v>6.653299190886782</v>
+        <v>8.292812663271112</v>
       </c>
       <c r="R5">
-        <v>6.653299190886782</v>
+        <v>74.63531396944001</v>
       </c>
       <c r="S5">
-        <v>0.05522329776176734</v>
+        <v>0.06416584969663434</v>
       </c>
       <c r="T5">
-        <v>0.05522329776176734</v>
+        <v>0.06416584969663433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.51059652109838</v>
+        <v>1.564190333333333</v>
       </c>
       <c r="H6">
-        <v>1.51059652109838</v>
+        <v>4.692571</v>
       </c>
       <c r="I6">
-        <v>0.3405309132709922</v>
+        <v>0.3305906291778926</v>
       </c>
       <c r="J6">
-        <v>0.3405309132709922</v>
+        <v>0.3305906291778925</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N6">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O6">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P6">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q6">
-        <v>16.86651661945944</v>
+        <v>17.56618488050978</v>
       </c>
       <c r="R6">
-        <v>16.86651661945944</v>
+        <v>158.095663924588</v>
       </c>
       <c r="S6">
-        <v>0.1399944061971549</v>
+        <v>0.1359188039756677</v>
       </c>
       <c r="T6">
-        <v>0.1399944061971549</v>
+        <v>0.1359188039756677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51059652109838</v>
+        <v>1.564190333333333</v>
       </c>
       <c r="H7">
-        <v>1.51059652109838</v>
+        <v>4.692571</v>
       </c>
       <c r="I7">
-        <v>0.3405309132709922</v>
+        <v>0.3305906291778926</v>
       </c>
       <c r="J7">
-        <v>0.3405309132709922</v>
+        <v>0.3305906291778925</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N7">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O7">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P7">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q7">
-        <v>24.16062485100895</v>
+        <v>25.15944205292411</v>
       </c>
       <c r="R7">
-        <v>24.16062485100895</v>
+        <v>226.434978476317</v>
       </c>
       <c r="S7">
-        <v>0.2005365070738373</v>
+        <v>0.1946718252022248</v>
       </c>
       <c r="T7">
-        <v>0.2005365070738373</v>
+        <v>0.1946718252022248</v>
       </c>
     </row>
   </sheetData>
